--- a/Plejecentre.xlsx
+++ b/Plejecentre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruger\Documents\Bachelorprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5B8911D1-85F9-4A89-86E0-0EC1F5508D29}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{98102E83-32B7-457D-BD9E-A9FB1134CEAC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9070" xr2:uid="{67E6E48D-6249-4DA5-9873-57FE481732B7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Hæve sænke funktion</t>
-  </si>
-  <si>
-    <t>Anvendelse af luna sammen med Carendo</t>
   </si>
   <si>
     <t>Arbejdsgang</t>
@@ -544,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758D3C2A-ED3E-4A0E-BC8A-DBBB57E283BF}">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -558,7 +555,7 @@
     <col min="6" max="6" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -578,13 +575,13 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="H1" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
         <v>30</v>
@@ -593,31 +590,28 @@
         <v>31</v>
       </c>
       <c r="L1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="M1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="Q1" t="s">
         <v>28</v>
       </c>
       <c r="R1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
@@ -639,41 +633,38 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>0</v>
+      <c r="H2" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
-        <v>15</v>
+        <v>44</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2">
         <v>1</v>
       </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -695,41 +686,38 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3">
-        <v>0</v>
+      <c r="H3" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-      <c r="O3" t="s">
-        <v>25</v>
+        <v>44</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3">
         <v>1</v>
       </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -749,43 +737,40 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4" t="s">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5</v>
       </c>
@@ -805,43 +790,40 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5" t="s">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -863,41 +845,38 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6">
-        <v>0</v>
+      <c r="H6" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6">
-        <v>2</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>18</v>
+        <v>44</v>
+      </c>
+      <c r="L6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3</v>
       </c>
@@ -919,41 +898,38 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7">
-        <v>0</v>
+      <c r="H7" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>19</v>
+        <v>44</v>
+      </c>
+      <c r="L7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>3</v>
       </c>
@@ -973,43 +949,40 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8" t="s">
-        <v>20</v>
+        <v>44</v>
+      </c>
+      <c r="L8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1031,41 +1004,38 @@
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9">
-        <v>0</v>
+      <c r="H9" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" t="s">
-        <v>11</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9" t="s">
-        <v>21</v>
+        <v>44</v>
+      </c>
+      <c r="L9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
         <v>1</v>
       </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1087,41 +1057,38 @@
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10">
-        <v>0</v>
+      <c r="H10" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10" t="s">
-        <v>18</v>
+        <v>44</v>
+      </c>
+      <c r="L10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1143,41 +1110,38 @@
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11">
-        <v>0</v>
+      <c r="H11" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M11" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11">
-        <v>2</v>
-      </c>
-      <c r="O11" t="s">
-        <v>22</v>
+        <v>44</v>
+      </c>
+      <c r="L11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1199,41 +1163,38 @@
       <c r="G12">
         <v>0</v>
       </c>
-      <c r="H12">
-        <v>0</v>
+      <c r="H12" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M12" t="s">
-        <v>23</v>
-      </c>
-      <c r="N12">
-        <v>2</v>
-      </c>
-      <c r="O12" t="s">
-        <v>21</v>
+        <v>44</v>
+      </c>
+      <c r="L12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1255,41 +1216,38 @@
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13">
-        <v>0</v>
+      <c r="H13" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13" t="s">
-        <v>24</v>
+        <v>44</v>
+      </c>
+      <c r="L13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1311,41 +1269,38 @@
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M14" t="s">
-        <v>10</v>
-      </c>
-      <c r="N14">
-        <v>2</v>
-      </c>
-      <c r="O14" t="s">
-        <v>24</v>
+        <v>44</v>
+      </c>
+      <c r="L14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>5</v>
       </c>
@@ -1367,42 +1322,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-      <c r="H15">
-        <v>0</v>
+      <c r="H15" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M15" t="s">
-        <v>11</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15" t="s">
-        <v>27</v>
+        <v>44</v>
+      </c>
+      <c r="L15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H17" s="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plejecentre.xlsx
+++ b/Plejecentre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruger\Documents\Bachelorprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{98102E83-32B7-457D-BD9E-A9FB1134CEAC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{88FBD5D3-F24A-4857-A0EE-832E5B9D7C08}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9070" xr2:uid="{67E6E48D-6249-4DA5-9873-57FE481732B7}"/>
   </bookViews>
@@ -543,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758D3C2A-ED3E-4A0E-BC8A-DBBB57E283BF}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1143,10 +1143,10 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
         <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
       </c>
       <c r="C12" s="1">
         <v>43380.862523148149</v>
